--- a/biology/Médecine/Toxi-infection_alimentaire_collective/Toxi-infection_alimentaire_collective.xlsx
+++ b/biology/Médecine/Toxi-infection_alimentaire_collective/Toxi-infection_alimentaire_collective.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une toxi-infection alimentaire collective, ou TIAC, est une toxi-infection alimentaire résultant d'une forme de restauration collective. 
-Les toxi-infections alimentaires collectives sont des maladies infectieuses à déclaration obligatoire (MDO) en France lorsqu’il existe « au moins deux cas groupés, avec des manifestations similaires dues à une contamination par un micro-organisme (bactéries en général) ou une toxine »[1].
+Les toxi-infections alimentaires collectives sont des maladies infectieuses à déclaration obligatoire (MDO) en France lorsqu’il existe « au moins deux cas groupés, avec des manifestations similaires dues à une contamination par un micro-organisme (bactéries en général) ou une toxine ».
 Une toxi-infection alimentaire collective affectant un grand nombre de personnes peut aboutir à un emballement médiatique que l'on qualifie parfois de scandale alimentaire.
 </t>
         </is>
@@ -513,7 +525,9 @@
           <t>Transmission</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les salariés malades qui manipulent des aliments sont l'une des sources de contamination les plus répandues transmise par voie alimentaire.
 </t>
@@ -544,7 +558,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les TIAC sont généralement d'origine bactérienne, virale, parasitaire ou fongique (faisant référence aux champignons microscopiques, Fungi). 
 Les souches bactériennes peuvent entrainer des contaminations des aliments qui entraînent des maladies chez les populations. L'apparition de symptômes est due à   plusieurs facteurs : l’espèce, la présence de gènes de virulence, la dose ingérée, ou encore au stress subi dans l'environnement ou l'aliment (acidité, eau disponible, taux de sel, réchauffage ou congélation...) mais aussi à l’hôte. Dans les bonnes conditions les bactéries se multiplient très rapidement c'est pourquoi nombreuses sont les TIAC d'origine bactérienne. 
@@ -580,7 +596,9 @@
           <t>Signalement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">En France, toute suspicion de TIAC dans une collectivité dans la restauration ou bien dans l'industrie agro-alimentaire doit être immédiatement signalée à la DDCCRF (Direction Départementale de la Concurrence, de la Consommation et de la Répression des fraudes, à la DDASS (Direction Départementale des Affaires Sanitaires et Sociales) ou bien à la DDSV (Direction Départementale des Services Vétérinaires) - organismes désormais regroupés dans les DDPP ou les DDCSPP (Direction départementale de la Protection des populations) afin qu'une investigation soit réalisée pour identifier :
 Le micro-organisme responsable (grâce à une confrontation des signes cliniques, des analyses microbiologiques et de l'enquête cas-témoins) ;
